--- a/Documentation/00_SourcesOfTruth/Warrior Progression for all subclasses.xlsx
+++ b/Documentation/00_SourcesOfTruth/Warrior Progression for all subclasses.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/97831314814a3f4e/Documents/BG 3 Mod Maker/Created Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tenod\source\repos\BG3Mods\Documentation\00_SourcesOfTruth\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{3E662D4E-AF75-4DFE-ACCD-9136820E412A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A366977-5845-4D1D-97BB-7FD0E18A0B52}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{725B3B98-F962-443E-82A5-71DC1ACCD795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="32640" xr2:uid="{A9183F6B-6AD2-49DF-8B06-5FDAF1A222AC}"/>
+    <workbookView xWindow="255" yWindow="675" windowWidth="38370" windowHeight="20640" xr2:uid="{A9183F6B-6AD2-49DF-8B06-5FDAF1A222AC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Warrior Progression for all sub" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Warrior Progression for all sub'!$A$4:$BT$24</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="295">
   <si>
     <t> Whirlwind (WW) - primary multitarget attack.</t>
   </si>
@@ -269,9 +272,6 @@
     <t> Barbaric Training - worthwhile filler ability damage.</t>
   </si>
   <si>
-    <t>BG3</t>
-  </si>
-  <si>
     <t>Grant Extra Attack</t>
   </si>
   <si>
@@ -761,18 +761,12 @@
     <t> Thunderlord (TL) - Good cooldown reduction for demoralizing Shout that synergizes with other talents in the tree. Good talent in AoE, very mediocre in single target.</t>
   </si>
   <si>
-    <t> Bloodborne (BB) - Provides a decent increase to bleed effects.</t>
-  </si>
-  <si>
     <t> Unnerving Focus - Increases Rage Generation while  Last Stand is active. Has rarely seen play.</t>
   </si>
   <si>
     <t>Heavy Repercussions (HR) - Increases Rage Generation of  Shield Slam by 2, which is also multiplied by  Violent Outburst. But more importantly, it increases  Shield Block duration by 1 second every time you press  Shield Slam, resulting in pretty much infinite  Shield Block uptime. Mandatory pick for low haste levels early in an expansion.</t>
   </si>
   <si>
-    <t> Into the Fray (ITF) - 8% Haste buff that is easy to maintain in any group scenario, but especially in AoE. Always useful, and very easy to justify running at all times outside of early expansion M+. Fantastic in raids. Good in Mythic+, but comes at the loss of some defensive reliability, which isn't necessarily worth the risk.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Punish - Increases  Shield Slam damage and causes the hit enemy to deal less damage to you.</t>
   </si>
   <si>
@@ -821,9 +815,6 @@
     <t> Booming Voice (BV) - Turns Demoralizing Shout into a good offensive cooldown and Rage generation tool. Grants 30 rage and synergizes very nicely with </t>
   </si>
   <si>
-    <t> Thunderlord, especially in AoE. Can be classified as Mandatory.</t>
-  </si>
-  <si>
     <t> Indomitable (Indom) - Extremely valuable defensive talent. Substantially increases tankiness and grants a steady trickle of self-healing. Mandatory if you want to call yourself a tank.</t>
   </si>
   <si>
@@ -872,9 +863,6 @@
     <t>Dominance of the Colossus</t>
   </si>
   <si>
-    <t>Arterial Blows</t>
-  </si>
-  <si>
     <t>No Stranger to Pain</t>
   </si>
   <si>
@@ -924,6 +912,18 @@
   </si>
   <si>
     <t>Mountain Thane Talents (Protection, Fury)</t>
+  </si>
+  <si>
+    <t>BG3 (All Classes)</t>
+  </si>
+  <si>
+    <t>Arterial Bleed</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bolster - Reduces the cooldown of  Last Stand to 2 minutes and grants  Shield Block. Can find a niche application if the lower cooldown is beneficial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sudden Death (SD) - Excellent single-target damage proc, adds up to quite a bit of damage throughout a raid fight.</t>
   </si>
 </sst>
 </file>
@@ -1035,21 +1035,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1067,21 +1057,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1094,6 +1072,30 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8123,13 +8125,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -8185,15 +8187,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8373,13 +8375,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -13703,47 +13705,419 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="245" name="Picture 244">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId316"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B909C84-28C7-EEDA-4284-302B51CDE26F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId317">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="70761225" y="11068050"/>
+          <a:ext cx="142875" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="247" name="Picture 246">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId318"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{148536D7-8D56-2165-827E-5F28BF6FDDF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId319">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="76666725" y="11068050"/>
+          <a:ext cx="142875" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="249" name="Picture 248">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId320"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF32E1CF-DACD-0BE8-5296-F15AA063A003}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="78143100" y="11068050"/>
+          <a:ext cx="142875" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="251" name="Picture 250">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId321"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{131748F4-C383-169E-4F12-679356874D9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId322">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="69284850" y="14306550"/>
+          <a:ext cx="142875" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="252" name="Picture 251">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId323"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF965EFF-76C6-6710-EDEF-F4F82C1BA422}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId324">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="69284850" y="15830550"/>
+          <a:ext cx="142875" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="253" name="Picture 252">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId325"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{042B8F1B-95AA-AEC6-67A7-547706B4C74C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId207">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="69284850" y="17354550"/>
+          <a:ext cx="142875" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>51</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>51</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="243" name="Picture 242">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId316"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E4BA60F-BF73-3A77-E2EB-2491843BC362}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="73713975" y="11068050"/>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="254" name="Picture 253">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId326"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A62EB76-B216-C6EC-D6D1-AF6465D3F12D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="69284850" y="19640550"/>
           <a:ext cx="142875" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13767,45 +14141,107 @@
     <xdr:from>
       <xdr:col>52</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="244" name="Picture 243">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId140"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62950D78-F5BD-9AFA-7F2C-CFC3671B0C2E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId141">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="75190350" y="11068050"/>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="259" name="Picture 258">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId327"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE161682-D1EC-FFF3-D1D2-7F5A1ABF927E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId328">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="69284850" y="22307550"/>
+          <a:ext cx="142875" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="260" name="Picture 259">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId329"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3B6AB90-E2AD-1623-1870-943C2C1BA3C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId330">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="69284850" y="16402050"/>
           <a:ext cx="142875" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13829,45 +14265,169 @@
     <xdr:from>
       <xdr:col>49</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="245" name="Picture 244">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId317"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B909C84-28C7-EEDA-4284-302B51CDE26F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId318">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="70761225" y="11068050"/>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="261" name="Picture 260">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId331"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEE5DA8E-588A-FE3F-672E-D29D67E0AFDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId296">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="70761225" y="16402050"/>
+          <a:ext cx="142875" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="262" name="Picture 261">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId332"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FD849CD-818A-55A3-8B03-BE06776B16D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId333">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="72237600" y="16402050"/>
+          <a:ext cx="142875" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="263" name="Picture 262">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId334"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EF0FD0D-1D12-C523-CABA-D319C24FCCA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId335">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="73713975" y="16402050"/>
           <a:ext cx="142875" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -13891,763 +14451,19 @@
     <xdr:from>
       <xdr:col>52</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="246" name="Picture 245">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId319"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ED2B329-2226-00A1-40FD-E4421C069593}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId320">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="75190350" y="11068050"/>
-          <a:ext cx="142875" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="247" name="Picture 246">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId321"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{148536D7-8D56-2165-827E-5F28BF6FDDF9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId322">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="76666725" y="11068050"/>
-          <a:ext cx="142875" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="249" name="Picture 248">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId323"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF32E1CF-DACD-0BE8-5296-F15AA063A003}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="78143100" y="11068050"/>
-          <a:ext cx="142875" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="251" name="Picture 250">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId324"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{131748F4-C383-169E-4F12-679356874D9A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId325">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="69284850" y="14306550"/>
-          <a:ext cx="142875" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="252" name="Picture 251">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId326"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF965EFF-76C6-6710-EDEF-F4F82C1BA422}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId327">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="69284850" y="15830550"/>
-          <a:ext cx="142875" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="253" name="Picture 252">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId328"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{042B8F1B-95AA-AEC6-67A7-547706B4C74C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId207">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="69284850" y="17354550"/>
-          <a:ext cx="142875" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="254" name="Picture 253">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId329"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A62EB76-B216-C6EC-D6D1-AF6465D3F12D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="69284850" y="19640550"/>
-          <a:ext cx="142875" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="259" name="Picture 258">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId330"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE161682-D1EC-FFF3-D1D2-7F5A1ABF927E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId331">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="69284850" y="22307550"/>
-          <a:ext cx="142875" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="260" name="Picture 259">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId332"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3B6AB90-E2AD-1623-1870-943C2C1BA3C7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId333">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="69284850" y="16402050"/>
-          <a:ext cx="142875" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="261" name="Picture 260">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId334"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEE5DA8E-588A-FE3F-672E-D29D67E0AFDA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId296">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="70761225" y="16402050"/>
-          <a:ext cx="142875" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="262" name="Picture 261">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId335"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FD849CD-818A-55A3-8B03-BE06776B16D8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId336">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="72237600" y="16402050"/>
-          <a:ext cx="142875" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="263" name="Picture 262">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId337"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EF0FD0D-1D12-C523-CABA-D319C24FCCA5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId338">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="73713975" y="16402050"/>
-          <a:ext cx="142875" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>11</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="264" name="Picture 263">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId339"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId336"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50D8D025-4573-7903-42E4-4C7A4864C037}"/>
@@ -14659,7 +14475,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId340">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId337">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -14833,7 +14649,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="267" name="Picture 266">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId341"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId338"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B438234-5044-2401-0EC4-1CA7B3F81BF2}"/>
@@ -14845,7 +14661,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId342">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId339">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -14894,34 +14710,34 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="268" name="Picture 267">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId314"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70B1015A-304D-0CC1-6D46-F6F359FDC938}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId315">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="69284850" y="22879050"/>
+        <xdr:cNvPr id="269" name="Picture 268">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId340"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FD7AA2A-019B-FC1B-11D7-1D3E066B8CA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId341">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="69284850" y="23831550"/>
           <a:ext cx="142875" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14956,34 +14772,34 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="269" name="Picture 268">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId343"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FD7AA2A-019B-FC1B-11D7-1D3E066B8CA4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId344">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="69284850" y="23831550"/>
+        <xdr:cNvPr id="270" name="Picture 269">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId342"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA52C63F-9CDD-FBFF-649E-B3D4996D779D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId343">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="69284850" y="25546050"/>
           <a:ext cx="142875" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15012,68 +14828,6 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="270" name="Picture 269">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId345"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA52C63F-9CDD-FBFF-649E-B3D4996D779D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId346">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="69284850" y="25546050"/>
-          <a:ext cx="142875" cy="142875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>53</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>53</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
@@ -15081,7 +14835,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="271" name="Picture 270">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId347"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId344"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77611CDC-7808-A4B0-C95A-F5B68E77A74E}"/>
@@ -15093,7 +14847,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId348">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId345">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -15143,7 +14897,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="272" name="Picture 271">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId349"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId346"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58F3D5E3-B5EF-C30F-A33E-8B871B14014E}"/>
@@ -15155,7 +14909,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId350">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId347">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -15205,7 +14959,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="273" name="Picture 272">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId351"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId348"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{862D0C5C-4C05-C7B9-8077-836F48C3CD00}"/>
@@ -15267,7 +15021,7 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="274" name="Picture 273">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId352"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId349"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FB077D1-D467-91CA-D49E-54FD559D5B27}"/>
@@ -15356,6 +15110,130 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="69284850" y="27641550"/>
+          <a:ext cx="142875" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId350"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79CC83C0-70AF-C5CB-6324-C25314DDEAA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId351">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="81581625" y="10296525"/>
+          <a:ext cx="142875" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId140"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{039E464D-38F0-CA29-19AC-D9A14018BA0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId141">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="84029550" y="10296525"/>
           <a:ext cx="142875" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15697,9 +15575,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CFBCD4-9567-4437-933D-FAFBADA89726}">
   <dimension ref="A2:BT43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AK1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BD2" sqref="BD2:BF2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AS1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BB13" sqref="BB13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15709,7 +15587,9 @@
     <col min="3" max="3" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="24" customWidth="1"/>
+    <col min="6" max="8" width="24" customWidth="1"/>
+    <col min="9" max="9" width="40.7109375" customWidth="1"/>
+    <col min="10" max="10" width="36.7109375" customWidth="1"/>
     <col min="11" max="11" width="21" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.28515625" bestFit="1" customWidth="1"/>
@@ -15733,430 +15613,430 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:72" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="18" t="s">
+      <c r="B2" s="18" t="s">
+        <v>291</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="18"/>
-      <c r="AN2" s="18"/>
-      <c r="AO2" s="18"/>
-      <c r="AP2" s="18"/>
-      <c r="AQ2" s="18"/>
-      <c r="AR2" s="18"/>
-      <c r="AS2" s="18"/>
-      <c r="AT2" s="18"/>
-      <c r="AU2" s="18"/>
-      <c r="AV2" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="AW2" s="17"/>
-      <c r="AX2" s="17"/>
-      <c r="AY2" s="17"/>
-      <c r="AZ2" s="17"/>
-      <c r="BA2" s="17"/>
-      <c r="BB2" s="17"/>
-      <c r="BC2" s="17"/>
-      <c r="BD2" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="BE2" s="18"/>
-      <c r="BF2" s="18"/>
-      <c r="BG2" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="BH2" s="18"/>
-      <c r="BI2" s="18"/>
-      <c r="BJ2" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="BK2" s="18"/>
-      <c r="BL2" s="18"/>
-      <c r="BM2" s="22"/>
-      <c r="BN2" s="22"/>
-      <c r="BO2" s="19"/>
-      <c r="BP2" s="19"/>
-      <c r="BQ2" s="19"/>
-      <c r="BR2" s="19"/>
-      <c r="BS2" s="19"/>
-      <c r="BT2" s="19"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20"/>
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="AL2" s="20"/>
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
+      <c r="AS2" s="20"/>
+      <c r="AT2" s="20"/>
+      <c r="AU2" s="20"/>
+      <c r="AV2" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="AW2" s="24"/>
+      <c r="AX2" s="24"/>
+      <c r="AY2" s="24"/>
+      <c r="AZ2" s="24"/>
+      <c r="BA2" s="24"/>
+      <c r="BB2" s="24"/>
+      <c r="BC2" s="24"/>
+      <c r="BD2" s="20" t="s">
+        <v>290</v>
+      </c>
+      <c r="BE2" s="20"/>
+      <c r="BF2" s="20"/>
+      <c r="BG2" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="BH2" s="20"/>
+      <c r="BI2" s="20"/>
+      <c r="BJ2" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="BK2" s="20"/>
+      <c r="BL2" s="20"/>
+      <c r="BM2" s="14"/>
+      <c r="BN2" s="14"/>
+      <c r="BO2" s="12"/>
+      <c r="BP2" s="12"/>
+      <c r="BQ2" s="12"/>
+      <c r="BR2" s="12"/>
+      <c r="BS2" s="12"/>
+      <c r="BT2" s="12"/>
     </row>
     <row r="3" spans="1:72" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="10" t="s">
+      <c r="D3" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10" t="s">
+      <c r="L3" s="21"/>
+      <c r="M3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="12" t="s">
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="X3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="4"/>
-      <c r="AJ3" s="4"/>
-      <c r="AK3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AL3" s="4"/>
-      <c r="AM3" s="4"/>
-      <c r="AN3" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO3" s="4"/>
-      <c r="AP3" s="4"/>
-      <c r="AQ3" s="4"/>
-      <c r="AR3" s="4"/>
-      <c r="AS3" s="4"/>
-      <c r="AT3" s="4"/>
-      <c r="AU3" s="4"/>
-      <c r="AV3" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="AW3" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AX3" s="4"/>
-      <c r="AY3" s="4"/>
-      <c r="AZ3" s="4"/>
-      <c r="BA3" s="4"/>
-      <c r="BB3" s="4"/>
-      <c r="BC3" s="4"/>
-      <c r="BD3" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="BE3" s="8"/>
-      <c r="BF3" s="8"/>
-      <c r="BG3" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="BH3" s="8"/>
-      <c r="BI3" s="8"/>
-      <c r="BJ3" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="BK3" s="8"/>
-      <c r="BL3" s="8"/>
+      <c r="X3" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="19"/>
+      <c r="AE3" s="19"/>
+      <c r="AF3" s="19"/>
+      <c r="AG3" s="19"/>
+      <c r="AH3" s="19"/>
+      <c r="AI3" s="19"/>
+      <c r="AJ3" s="19"/>
+      <c r="AK3" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="AL3" s="19"/>
+      <c r="AM3" s="19"/>
+      <c r="AN3" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO3" s="19"/>
+      <c r="AP3" s="19"/>
+      <c r="AQ3" s="19"/>
+      <c r="AR3" s="19"/>
+      <c r="AS3" s="19"/>
+      <c r="AT3" s="19"/>
+      <c r="AU3" s="19"/>
+      <c r="AV3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AW3" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="AX3" s="19"/>
+      <c r="AY3" s="19"/>
+      <c r="AZ3" s="19"/>
+      <c r="BA3" s="19"/>
+      <c r="BB3" s="19"/>
+      <c r="BC3" s="19"/>
+      <c r="BD3" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="BE3" s="23"/>
+      <c r="BF3" s="23"/>
+      <c r="BG3" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="BH3" s="23"/>
+      <c r="BI3" s="23"/>
+      <c r="BJ3" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="BK3" s="23"/>
+      <c r="BL3" s="23"/>
     </row>
     <row r="4" spans="1:72" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="11" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="I4" s="11" t="s">
+      <c r="H4" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="M4" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="L4" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="M4" s="10" t="s">
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="8"/>
+      <c r="X4" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="12"/>
-      <c r="X4" s="4" t="s">
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4"/>
-      <c r="AJ4" s="4"/>
-      <c r="AK4" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="AN4" s="4"/>
-      <c r="AO4" s="4"/>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="4"/>
-      <c r="AR4" s="4"/>
-      <c r="AS4" s="4"/>
-      <c r="AT4" s="4"/>
-      <c r="AU4" s="4"/>
-      <c r="AV4" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="AW4" s="4"/>
-      <c r="AX4" s="4"/>
-      <c r="AY4" s="4"/>
-      <c r="AZ4" s="4"/>
-      <c r="BA4" s="4"/>
-      <c r="BB4" s="4"/>
-      <c r="BC4" s="4"/>
-      <c r="BD4" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="BE4" s="8"/>
-      <c r="BF4" s="8"/>
-      <c r="BG4" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="BH4" s="8"/>
-      <c r="BI4" s="8"/>
-      <c r="BJ4" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="BK4" s="8"/>
-      <c r="BL4" s="8"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="19"/>
+      <c r="AG4" s="19"/>
+      <c r="AH4" s="19"/>
+      <c r="AI4" s="19"/>
+      <c r="AJ4" s="19"/>
+      <c r="AK4" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL4" s="19"/>
+      <c r="AM4" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="AN4" s="19"/>
+      <c r="AO4" s="19"/>
+      <c r="AP4" s="19"/>
+      <c r="AQ4" s="19"/>
+      <c r="AR4" s="19"/>
+      <c r="AS4" s="19"/>
+      <c r="AT4" s="19"/>
+      <c r="AU4" s="19"/>
+      <c r="AV4" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="AW4" s="19"/>
+      <c r="AX4" s="19"/>
+      <c r="AY4" s="19"/>
+      <c r="AZ4" s="19"/>
+      <c r="BA4" s="19"/>
+      <c r="BB4" s="19"/>
+      <c r="BC4" s="19"/>
+      <c r="BD4" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="BE4" s="23"/>
+      <c r="BF4" s="23"/>
+      <c r="BG4" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="BH4" s="23"/>
+      <c r="BI4" s="23"/>
+      <c r="BJ4" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="BK4" s="23"/>
+      <c r="BL4" s="23"/>
     </row>
     <row r="5" spans="1:72" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="13" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="9" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12" t="s">
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8" t="s">
         <v>57</v>
       </c>
       <c r="X5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y5" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="Y5" s="2" t="s">
+      <c r="Z5" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="Z5" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="AK5" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AL5" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="AL5" s="2" t="s">
+      <c r="AM5" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="AM5" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="AV5" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:72" ht="105" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="13" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="O6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="P6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12" t="s">
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8" t="s">
         <v>58</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH6" s="6"/>
-      <c r="AI6" s="6"/>
-      <c r="AJ6" s="6"/>
+        <v>101</v>
+      </c>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
       <c r="AM6" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AW6" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AX6" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="AX6" s="2" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:72" ht="180" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="6">
         <v>3</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="13" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="9" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>1</v>
@@ -16164,173 +16044,173 @@
       <c r="J7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="13" t="s">
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="13" t="s">
+      <c r="N7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O7" s="13" t="s">
+      <c r="O7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12" t="s">
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8" t="s">
         <v>59</v>
       </c>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC7" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AC7" s="2" t="s">
+      <c r="AD7" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="AD7" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
-      <c r="AJ7" s="7"/>
+      <c r="AJ7" s="5"/>
       <c r="AK7" s="1"/>
       <c r="AN7" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO7" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="AO7" s="2" t="s">
+      <c r="AP7" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="AP7" s="2" t="s">
+      <c r="AQ7" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="AQ7" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="AW7" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="AX7" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="AX7" s="2" t="s">
+      <c r="AY7" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="AY7" s="2" t="s">
+      <c r="AZ7" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="AZ7" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:72" ht="150" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+      <c r="A8" s="6">
         <v>4</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="13" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="13" t="s">
+      <c r="N8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="13" t="s">
+      <c r="O8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="P8" s="13" t="s">
+      <c r="P8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="Q8" s="13" t="s">
+      <c r="Q8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="R8" s="13" t="s">
+      <c r="R8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
-      <c r="V8" s="12" t="s">
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8" t="s">
         <v>60</v>
       </c>
       <c r="AB8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC8" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="AC8" s="2" t="s">
+      <c r="AD8" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="AD8" s="2" t="s">
+      <c r="AE8" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AE8" s="2" t="s">
+      <c r="AF8" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AF8" s="2" t="s">
+      <c r="AG8" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AG8" s="2" t="s">
+      <c r="AH8" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AH8" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI8" s="7"/>
-      <c r="AJ8" s="7"/>
-      <c r="AK8" s="7"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
       <c r="AN8" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="AO8" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="AO8" s="2" t="s">
+      <c r="AP8" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="AP8" s="2" t="s">
+      <c r="AQ8" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="AQ8" s="2" t="s">
+      <c r="AR8" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="AR8" s="2" t="s">
+      <c r="AS8" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="AS8" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="AW8" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="AX8" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="AX8" s="2" t="s">
+      <c r="AY8" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="AY8" s="2" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:72" ht="195" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="6">
         <v>5</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="13" t="s">
+      <c r="B9" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>4</v>
@@ -16338,951 +16218,951 @@
       <c r="J9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="13" t="s">
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="N9" s="13" t="s">
+      <c r="N9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="O9" s="13" t="s">
+      <c r="O9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="P9" s="13" t="s">
+      <c r="P9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="Q9" s="13" t="s">
+      <c r="Q9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="R9" s="13" t="s">
+      <c r="R9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12" t="s">
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8" t="s">
         <v>61</v>
       </c>
       <c r="AB9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC9" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AC9" s="2" t="s">
+      <c r="AD9" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AD9" s="2" t="s">
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AN9" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="AO9" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="AP9" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AW9" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="AX9" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="AY9" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="AZ9" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="BA9" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="BB9" s="15" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="10" spans="1:72" ht="240" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>6</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="H10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB10" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="7"/>
-      <c r="AJ9" s="7"/>
-      <c r="AK9" s="7"/>
-      <c r="AN9" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AO9" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="AP9" s="2" t="s">
+      <c r="AC10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG10" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI10" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AN10" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="AW9" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="AX9" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="AY9" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="AZ9" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="BA9" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="BB9" s="23" t="s">
+      <c r="AO10" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AP10" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AQ10" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AR10" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="AS10" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT10" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AU10" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="AW10" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="AX10" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="AY10" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="10" spans="1:72" ht="255" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>6</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="H10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="N10" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O10" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="P10" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q10" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="R10" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="S10" s="12"/>
-      <c r="T10" s="12"/>
-      <c r="U10" s="12"/>
-      <c r="V10" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="AB10" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC10" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD10" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE10" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF10" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AG10" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AH10" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AI10" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ10" s="7"/>
-      <c r="AK10" s="7"/>
-      <c r="AN10" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="AO10" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="AP10" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="AQ10" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AR10" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="AS10" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT10" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="AU10" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW10" s="2" t="s">
+      <c r="AZ10" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="BA10" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="BB10" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="AX10" s="24" t="s">
+      <c r="BC10" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="AY10" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="AZ10" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="BA10" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="BB10" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="BC10" s="2" t="s">
-        <v>246</v>
-      </c>
+      <c r="BF10" s="2"/>
     </row>
     <row r="11" spans="1:72" ht="165" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="6">
         <v>7</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="13" t="s">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="9" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L11" s="12"/>
-      <c r="M11" s="13" t="s">
+      <c r="L11" s="8"/>
+      <c r="M11" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="N11" s="13" t="s">
+      <c r="N11" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="O11" s="13" t="s">
+      <c r="O11" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="P11" s="13" t="s">
+      <c r="P11" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="Q11" s="13" t="s">
+      <c r="Q11" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="R11" s="13" t="s">
+      <c r="R11" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="S11" s="13" t="s">
+      <c r="S11" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="T11" s="13" t="s">
+      <c r="T11" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="U11" s="13" t="s">
+      <c r="U11" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="V11" s="12" t="s">
+      <c r="V11" s="8" t="s">
         <v>63</v>
       </c>
       <c r="AB11" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC11" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AC11" s="2" t="s">
+      <c r="AD11" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AD11" s="2" t="s">
+      <c r="AE11" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="AE11" s="2" t="s">
+      <c r="AF11" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="AF11" s="2" t="s">
+      <c r="AG11" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="AG11" s="2" t="s">
+      <c r="AH11" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AH11" s="2" t="s">
+      <c r="AI11" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AI11" s="2" t="s">
+      <c r="AJ11" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="AJ11" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="AK11" s="1"/>
       <c r="AN11" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO11" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="AO11" s="2" t="s">
+      <c r="AP11" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="AP11" s="2" t="s">
+      <c r="AQ11" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR11" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="AQ11" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="AR11" s="2" t="s">
+      <c r="AS11" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="AS11" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="AW11" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="AX11" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="AY11" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="AZ11" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="AX11" s="2" t="s">
+      <c r="BA11" s="11" t="s">
         <v>248</v>
-      </c>
-      <c r="AY11" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="AZ11" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="BA11" s="15" t="s">
-        <v>251</v>
       </c>
       <c r="BB11" s="2"/>
       <c r="BC11" s="2"/>
     </row>
     <row r="12" spans="1:72" ht="165" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="6">
         <v>8</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="13" t="s">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="N12" s="13" t="s">
+      <c r="N12" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="O12" s="13" t="s">
+      <c r="O12" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="P12" s="13" t="s">
+      <c r="P12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="12"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12" t="s">
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8" t="s">
         <v>64</v>
       </c>
       <c r="AB12" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC12" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AC12" s="2" t="s">
+      <c r="AD12" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AD12" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="AN12" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AO12" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="AO12" s="2" t="s">
+      <c r="AP12" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="AP12" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="AW12" s="15" t="s">
+      <c r="AW12" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="AX12" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="AY12" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AZ12" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="AX12" s="15" t="s">
+      <c r="BA12" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="AY12" s="2" t="s">
+      <c r="BB12" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="AZ12" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="BA12" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="BB12" s="2" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="13" spans="1:72" ht="180" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="6">
         <v>9</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="13" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="9" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="H13" s="12"/>
+        <v>152</v>
+      </c>
+      <c r="H13" s="8"/>
       <c r="I13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L13" s="12"/>
-      <c r="M13" s="13" t="s">
+      <c r="L13" s="8"/>
+      <c r="M13" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="N13" s="13" t="s">
+      <c r="N13" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="O13" s="13" t="s">
+      <c r="O13" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12" t="s">
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8" t="s">
         <v>65</v>
       </c>
       <c r="AB13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC13" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="AC13" s="2" t="s">
+      <c r="AD13" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="AD13" s="2" t="s">
+      <c r="AE13" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="AE13" s="2" t="s">
+      <c r="AF13" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="AF13" s="2" t="s">
+      <c r="AG13" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="AG13" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="AN13" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="AO13" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="AO13" s="2" t="s">
+      <c r="AP13" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="AP13" s="2" t="s">
+      <c r="AQ13" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="AQ13" s="2" t="s">
+      <c r="AR13" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="AR13" s="2" t="s">
+      <c r="AS13" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AS13" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="AW13" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="AX13" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="AY13" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="AZ13" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="AX13" s="2" t="s">
+      <c r="BA13" s="11" t="s">
         <v>260</v>
-      </c>
-      <c r="AY13" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="AZ13" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="BA13" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="BB13" s="15" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:72" ht="300" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="6">
         <v>10</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="E14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="13" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="N14" s="13" t="s">
+      <c r="N14" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="O14" s="13" t="s">
+      <c r="O14" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="P14" s="13" t="s">
+      <c r="P14" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="Q14" s="13" t="s">
+      <c r="Q14" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="R14" s="13" t="s">
+      <c r="R14" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12" t="s">
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8" t="s">
         <v>66</v>
       </c>
       <c r="AB14" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC14" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="AC14" s="2" t="s">
+      <c r="AD14" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AD14" s="2" t="s">
+      <c r="AE14" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="AE14" s="2" t="s">
+      <c r="AF14" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="AF14" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="AN14" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="AO14" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="AO14" s="2" t="s">
+      <c r="AP14" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="AP14" s="2" t="s">
+      <c r="AQ14" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="AQ14" s="2" t="s">
+      <c r="AR14" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="AR14" s="2" t="s">
+      <c r="AS14" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="AS14" s="2" t="s">
+      <c r="AT14" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="AT14" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="AW14" s="2" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AX14" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="AY14" s="15" t="s">
-        <v>267</v>
+        <v>262</v>
+      </c>
+      <c r="AY14" s="11" t="s">
+        <v>263</v>
       </c>
       <c r="AZ14" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
-    <row r="15" spans="1:72" ht="75" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+    <row r="15" spans="1:72" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>11</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="13" t="s">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="12"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="2" t="s">
+        <v>153</v>
+      </c>
       <c r="G15" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="H15" s="12"/>
+        <v>148</v>
+      </c>
+      <c r="H15" s="8"/>
       <c r="I15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
     </row>
     <row r="16" spans="1:72" ht="75" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="6">
         <v>12</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="13" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="12"/>
+      <c r="E16" s="8"/>
       <c r="F16" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="H16" s="12"/>
+        <v>159</v>
+      </c>
+      <c r="H16" s="8"/>
       <c r="I16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="AZ16" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="BE16" s="7"/>
-      <c r="BF16" s="7"/>
-      <c r="BH16" s="7"/>
-      <c r="BI16" s="7"/>
-      <c r="BK16" s="7"/>
-      <c r="BL16" s="7"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="AZ16" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="BE16" s="5"/>
+      <c r="BF16" s="5"/>
+      <c r="BH16" s="5"/>
+      <c r="BI16" s="5"/>
+      <c r="BK16" s="5"/>
+      <c r="BL16" s="5"/>
     </row>
     <row r="17" spans="1:64" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="6">
         <v>13</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
-      <c r="BD17" s="7" t="s">
-        <v>80</v>
+      <c r="BD17" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="BE17" s="1"/>
-      <c r="BG17" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="BH17" s="6"/>
-      <c r="BI17" s="6"/>
-      <c r="BJ17" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="BK17" s="6"/>
-      <c r="BL17" s="6"/>
+      <c r="BG17" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="BH17" s="4"/>
+      <c r="BI17" s="4"/>
+      <c r="BJ17" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="BK17" s="4"/>
+      <c r="BL17" s="4"/>
     </row>
     <row r="18" spans="1:64" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
+      <c r="A18" s="6">
         <v>14</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
       <c r="X18" s="1"/>
       <c r="AW18" s="2"/>
       <c r="BI18" s="1"/>
       <c r="BL18" s="1"/>
     </row>
     <row r="19" spans="1:64" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
+      <c r="A19" s="6">
         <v>15</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
       <c r="X19" s="1"/>
-      <c r="BD19" s="7" t="s">
+      <c r="BD19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="BE19" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="BE19" s="7" t="s">
+      <c r="BF19" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="BF19" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="BG19" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="BH19" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="BI19" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="BJ19" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="BK19" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="BL19" s="7" t="s">
-        <v>289</v>
+      <c r="BG19" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="BH19" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="BI19" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="BJ19" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="BK19" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="BL19" s="5" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="20" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
+      <c r="A20" s="6">
         <v>16</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
       <c r="X20" s="1"/>
-      <c r="AW20" s="23"/>
+      <c r="AW20" s="15"/>
     </row>
     <row r="21" spans="1:64" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
+      <c r="A21" s="6">
         <v>17</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
       <c r="X21" s="1"/>
-      <c r="Y21" s="7"/>
-      <c r="BD21" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="BE21" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="BF21" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="BG21" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="BH21" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="BI21" s="7" t="s">
+      <c r="Y21" s="5"/>
+      <c r="BD21" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE21" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF21" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="BG21" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="BH21" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="BI21" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="BJ21" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="BJ21" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="BK21" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="BL21" s="7" t="s">
-        <v>291</v>
+      <c r="BK21" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="BL21" s="5" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="22" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
+      <c r="A22" s="6">
         <v>18</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
     </row>
     <row r="23" spans="1:64" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
+      <c r="A23" s="6">
         <v>19</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="BD23" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="BE23" s="7" t="s">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="BD23" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="BF23" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="BG23" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="BH23" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="BI23" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="BJ23" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="BK23" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="BL23" s="7" t="s">
-        <v>287</v>
+      <c r="BE23" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="BF23" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG23" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="BH23" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="BI23" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="BJ23" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="BK23" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="BL23" s="5" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:64" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
+      <c r="A24" s="6">
         <v>20</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="BD24" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="BG24" s="7" t="s">
-        <v>277</v>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="BD24" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG24" s="5" t="s">
+        <v>273</v>
       </c>
       <c r="BI24" s="1"/>
-      <c r="BJ24" s="7" t="s">
-        <v>288</v>
+      <c r="BJ24" s="5" t="s">
+        <v>283</v>
       </c>
       <c r="BL24" s="1"/>
     </row>
     <row r="36" spans="58:59" x14ac:dyDescent="0.25">
-      <c r="BG36" s="6"/>
+      <c r="BG36" s="4"/>
     </row>
     <row r="37" spans="58:59" x14ac:dyDescent="0.25">
       <c r="BG37" s="1"/>
     </row>
     <row r="38" spans="58:59" x14ac:dyDescent="0.25">
-      <c r="BF38" s="6"/>
+      <c r="BF38" s="4"/>
     </row>
     <row r="39" spans="58:59" x14ac:dyDescent="0.25">
       <c r="BF39" s="1"/>
@@ -17300,6 +17180,49 @@
       <c r="BF43" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A4:BT24" xr:uid="{62CFBCD4-9567-4437-933D-FAFBADA89726}">
+    <filterColumn colId="12" showButton="0"/>
+    <filterColumn colId="13" showButton="0"/>
+    <filterColumn colId="14" showButton="0"/>
+    <filterColumn colId="15" showButton="0"/>
+    <filterColumn colId="16" showButton="0"/>
+    <filterColumn colId="17" showButton="0"/>
+    <filterColumn colId="18" showButton="0"/>
+    <filterColumn colId="19" showButton="0"/>
+    <filterColumn colId="23" showButton="0"/>
+    <filterColumn colId="25" showButton="0"/>
+    <filterColumn colId="26" showButton="0"/>
+    <filterColumn colId="27" showButton="0"/>
+    <filterColumn colId="28" showButton="0"/>
+    <filterColumn colId="29" showButton="0"/>
+    <filterColumn colId="30" showButton="0"/>
+    <filterColumn colId="31" showButton="0"/>
+    <filterColumn colId="32" showButton="0"/>
+    <filterColumn colId="33" showButton="0"/>
+    <filterColumn colId="34" showButton="0"/>
+    <filterColumn colId="36" showButton="0"/>
+    <filterColumn colId="38" showButton="0"/>
+    <filterColumn colId="39" showButton="0"/>
+    <filterColumn colId="40" showButton="0"/>
+    <filterColumn colId="41" showButton="0"/>
+    <filterColumn colId="42" showButton="0"/>
+    <filterColumn colId="43" showButton="0"/>
+    <filterColumn colId="44" showButton="0"/>
+    <filterColumn colId="45" showButton="0"/>
+    <filterColumn colId="47" showButton="0"/>
+    <filterColumn colId="48" showButton="0"/>
+    <filterColumn colId="49" showButton="0"/>
+    <filterColumn colId="50" showButton="0"/>
+    <filterColumn colId="51" showButton="0"/>
+    <filterColumn colId="52" showButton="0"/>
+    <filterColumn colId="53" showButton="0"/>
+    <filterColumn colId="55" showButton="0"/>
+    <filterColumn colId="56" showButton="0"/>
+    <filterColumn colId="58" showButton="0"/>
+    <filterColumn colId="59" showButton="0"/>
+    <filterColumn colId="61" showButton="0"/>
+    <filterColumn colId="62" showButton="0"/>
+  </autoFilter>
   <mergeCells count="31">
     <mergeCell ref="BG4:BI4"/>
     <mergeCell ref="BJ2:BL2"/>
@@ -17448,11 +17371,11 @@
     <hyperlink ref="G9" r:id="rId112" display="https://www.wowhead.com/spell=100/charge" xr:uid="{8A26FD6D-9568-4036-A0A6-9D47E2EAEB16}"/>
     <hyperlink ref="G11" r:id="rId113" display="https://www.wowhead.com/spell=6552/pummel" xr:uid="{0808CC09-1137-4550-A71F-66FB6288D222}"/>
     <hyperlink ref="G5" r:id="rId114" display="https://www.wowhead.com/spell=355/taunt" xr:uid="{0EDC8CC9-50F8-4823-BA1D-FC88671F5AA6}"/>
-    <hyperlink ref="G13" r:id="rId115" display="https://www.wowhead.com/spell=34428/victory-rush" xr:uid="{D9DD6E4B-4796-4E5E-A10B-E2643D49AAEA}"/>
-    <hyperlink ref="G16" r:id="rId116" display="https://www.wowhead.com/spell=1715/hamstring" xr:uid="{369A3889-2481-4637-9D16-4E594BE63E64}"/>
+    <hyperlink ref="F13" r:id="rId115" display="https://www.wowhead.com/spell=34428/victory-rush" xr:uid="{D9DD6E4B-4796-4E5E-A10B-E2643D49AAEA}"/>
+    <hyperlink ref="F15" r:id="rId116" display="https://www.wowhead.com/spell=1715/hamstring" xr:uid="{369A3889-2481-4637-9D16-4E594BE63E64}"/>
     <hyperlink ref="F5" r:id="rId117" display="https://www.wowhead.com/spell=23922/shield-slam" xr:uid="{18DF084F-51BF-474B-8C2B-82864412D771}"/>
     <hyperlink ref="F7" r:id="rId118" display="https://www.wowhead.com/spell=20243/devastate" xr:uid="{3C815FD3-DA06-4F83-BA19-BC093BA15BAF}"/>
-    <hyperlink ref="F13" r:id="rId119" display="https://www.wowhead.com/spell=163201/execute" xr:uid="{3EA5A998-7220-4F6B-9884-95F9AA6FA226}"/>
+    <hyperlink ref="F14" r:id="rId119" display="https://www.wowhead.com/spell=163201/execute" xr:uid="{3EA5A998-7220-4F6B-9884-95F9AA6FA226}"/>
     <hyperlink ref="F9" r:id="rId120" display="https://www.wowhead.com/spell=57755/heroic-throw" xr:uid="{1074E540-41EA-49B6-945E-E34C580A75C0}"/>
     <hyperlink ref="F11" r:id="rId121" display="https://www.wowhead.com/spell=1464/slam" xr:uid="{934D3EAA-F621-472D-A1D0-44E34057C223}"/>
     <hyperlink ref="F16" r:id="rId122" display="https://www.wowhead.com/spell=1680/whirlwind" xr:uid="{BD91EF2A-8670-49B1-A0C5-61182C2F533D}"/>
@@ -17531,29 +17454,30 @@
     <hyperlink ref="AW9" r:id="rId195" display="https://www.wowhead.com/spell=12975/last-stand" xr:uid="{9012FE06-6457-4823-8192-2237165CB17B}"/>
     <hyperlink ref="AX9" r:id="rId196" display="https://www.wowhead.com/spell=394311/instigate" xr:uid="{51FB7262-5E98-42C7-87AA-CDD53EF7613E}"/>
     <hyperlink ref="BA9" r:id="rId197" display="https://www.wowhead.com/spell=383103/fueled-by-violence" xr:uid="{2F4BFB99-7121-44D0-8DA7-D8DB7C16D95E}"/>
-    <hyperlink ref="AZ10" r:id="rId198" display="https://www.wowhead.com/spell=385704/bloodborne" xr:uid="{A277EF05-B766-466A-9783-CE4D09A35721}"/>
-    <hyperlink ref="AX10" r:id="rId199" display="https://www.wowhead.com/spell=203177/heavy-repercussions" xr:uid="{C76227C8-5BB9-4828-AF51-8098BEE47B7C}"/>
-    <hyperlink ref="BA10" r:id="rId200" display="https://www.wowhead.com/spell=202603/into-the-fray" xr:uid="{09BDAE18-7844-4251-B8AD-158376120B51}"/>
-    <hyperlink ref="AW11" r:id="rId201" display="https://www.wowhead.com/spell=385888/tough-as-nails" xr:uid="{36CD79E9-A3D2-403F-BA4A-6EE205C8AE6C}"/>
-    <hyperlink ref="AX11" r:id="rId202" display="https://www.wowhead.com/spell=871/shield-wall" xr:uid="{3F4D13E3-04E1-4E35-9A31-AE9D35E5F2ED}"/>
-    <hyperlink ref="AY11" r:id="rId203" display="https://www.wowhead.com/spell=386027/enduring-defenses" xr:uid="{D74F1D38-06BC-4B81-A73A-8F841C4C8133}"/>
-    <hyperlink ref="BA11" r:id="rId204" display="https://www.wowhead.com/spell=1235038/red-right-hand" xr:uid="{2E7679DA-A640-4984-A922-002866B7D7A2}"/>
-    <hyperlink ref="AW12" r:id="rId205" display="https://www.wowhead.com/spell=397103/defenders-aegis" xr:uid="{F04D92B4-6B5C-4CBD-A20A-C68B6E46FB88}"/>
-    <hyperlink ref="AX12" r:id="rId206" display="https://www.wowhead.com/spell=384072/impenetrable-wall" xr:uid="{920F0C4E-5661-448A-A9BE-A4831076917A}"/>
-    <hyperlink ref="AY12" r:id="rId207" display="https://www.wowhead.com/spell=384067/focused-vigor" xr:uid="{B9D41F67-9143-4D37-AF70-FCCDF6707E3D}"/>
-    <hyperlink ref="AZ12" r:id="rId208" display="https://www.wowhead.com/spell=386011/shield-specialization" xr:uid="{F5C7B1B4-EF3F-4D4A-A6A1-812766E64BE5}"/>
-    <hyperlink ref="BA12" r:id="rId209" display="https://www.wowhead.com/spell=384063/enduring-alacrity" xr:uid="{1C7E1A7D-330F-4C15-AE4E-C887F3E0D7D9}"/>
-    <hyperlink ref="BB12" r:id="rId210" display="https://www.wowhead.com/spell=152278/anger-management" xr:uid="{EC7B1B01-07DF-42DB-8315-5BC1F82540B9}"/>
-    <hyperlink ref="AW13" r:id="rId211" display="https://www.wowhead.com/spell=281001/massacre" xr:uid="{57B79919-0245-42E7-9F66-8A9AF3A1A0CF}"/>
-    <hyperlink ref="AZ13" r:id="rId212" display="https://www.wowhead.com/spell=202095/indomitable" xr:uid="{9B054B72-CF1D-4791-8984-A7B4384180D9}"/>
-    <hyperlink ref="BA13" r:id="rId213" display="https://www.wowhead.com/spell=386477/violent-outburst" xr:uid="{78AE193E-7471-43E8-B1D6-4DD7FA4564A9}"/>
-    <hyperlink ref="BB13" r:id="rId214" display="https://www.wowhead.com/spell=1235088/heavy-handed" xr:uid="{BA805046-9CC0-4827-A862-5D570AF37D5E}"/>
-    <hyperlink ref="AW14" r:id="rId215" display="https://www.wowhead.com/spell=385952/shield-charge" xr:uid="{4F7D8331-90D9-4C76-B9AB-D42966EC1C29}"/>
-    <hyperlink ref="AX14" r:id="rId216" display="https://www.wowhead.com/spell=386394/battle-scarred-veteran" xr:uid="{3D21470D-35B1-479D-A65E-0A295CF70523}"/>
-    <hyperlink ref="AY14" r:id="rId217" display="https://www.wowhead.com/spell=1235113/whirling-blade" xr:uid="{2B504A48-E170-4DB3-91E3-4E636C794292}"/>
-    <hyperlink ref="AZ14" r:id="rId218" display="https://www.wowhead.com/spell=228920/ravager" xr:uid="{DFDE627B-65EF-4577-973D-2C591277440D}"/>
+    <hyperlink ref="BA10" r:id="rId198" display="https://www.wowhead.com/spell=203177/heavy-repercussions" xr:uid="{C76227C8-5BB9-4828-AF51-8098BEE47B7C}"/>
+    <hyperlink ref="AW11" r:id="rId199" display="https://www.wowhead.com/spell=385888/tough-as-nails" xr:uid="{36CD79E9-A3D2-403F-BA4A-6EE205C8AE6C}"/>
+    <hyperlink ref="AX11" r:id="rId200" display="https://www.wowhead.com/spell=871/shield-wall" xr:uid="{3F4D13E3-04E1-4E35-9A31-AE9D35E5F2ED}"/>
+    <hyperlink ref="AY11" r:id="rId201" display="https://www.wowhead.com/spell=386027/enduring-defenses" xr:uid="{D74F1D38-06BC-4B81-A73A-8F841C4C8133}"/>
+    <hyperlink ref="BA11" r:id="rId202" display="https://www.wowhead.com/spell=1235038/red-right-hand" xr:uid="{2E7679DA-A640-4984-A922-002866B7D7A2}"/>
+    <hyperlink ref="AW12" r:id="rId203" display="https://www.wowhead.com/spell=397103/defenders-aegis" xr:uid="{F04D92B4-6B5C-4CBD-A20A-C68B6E46FB88}"/>
+    <hyperlink ref="AX12" r:id="rId204" display="https://www.wowhead.com/spell=384072/impenetrable-wall" xr:uid="{920F0C4E-5661-448A-A9BE-A4831076917A}"/>
+    <hyperlink ref="AY12" r:id="rId205" display="https://www.wowhead.com/spell=384067/focused-vigor" xr:uid="{B9D41F67-9143-4D37-AF70-FCCDF6707E3D}"/>
+    <hyperlink ref="AZ12" r:id="rId206" display="https://www.wowhead.com/spell=386011/shield-specialization" xr:uid="{F5C7B1B4-EF3F-4D4A-A6A1-812766E64BE5}"/>
+    <hyperlink ref="BA12" r:id="rId207" display="https://www.wowhead.com/spell=384063/enduring-alacrity" xr:uid="{1C7E1A7D-330F-4C15-AE4E-C887F3E0D7D9}"/>
+    <hyperlink ref="BB12" r:id="rId208" display="https://www.wowhead.com/spell=152278/anger-management" xr:uid="{EC7B1B01-07DF-42DB-8315-5BC1F82540B9}"/>
+    <hyperlink ref="AW13" r:id="rId209" display="https://www.wowhead.com/spell=281001/massacre" xr:uid="{57B79919-0245-42E7-9F66-8A9AF3A1A0CF}"/>
+    <hyperlink ref="AY13" r:id="rId210" display="https://www.wowhead.com/spell=202095/indomitable" xr:uid="{9B054B72-CF1D-4791-8984-A7B4384180D9}"/>
+    <hyperlink ref="AZ13" r:id="rId211" display="https://www.wowhead.com/spell=386477/violent-outburst" xr:uid="{78AE193E-7471-43E8-B1D6-4DD7FA4564A9}"/>
+    <hyperlink ref="BA13" r:id="rId212" display="https://www.wowhead.com/spell=1235088/heavy-handed" xr:uid="{BA805046-9CC0-4827-A862-5D570AF37D5E}"/>
+    <hyperlink ref="AW14" r:id="rId213" display="https://www.wowhead.com/spell=385952/shield-charge" xr:uid="{4F7D8331-90D9-4C76-B9AB-D42966EC1C29}"/>
+    <hyperlink ref="AX14" r:id="rId214" display="https://www.wowhead.com/spell=386394/battle-scarred-veteran" xr:uid="{3D21470D-35B1-479D-A65E-0A295CF70523}"/>
+    <hyperlink ref="AY14" r:id="rId215" display="https://www.wowhead.com/spell=1235113/whirling-blade" xr:uid="{2B504A48-E170-4DB3-91E3-4E636C794292}"/>
+    <hyperlink ref="AZ14" r:id="rId216" display="https://www.wowhead.com/spell=228920/ravager" xr:uid="{DFDE627B-65EF-4577-973D-2C591277440D}"/>
+    <hyperlink ref="AX10" r:id="rId217" display="https://www.wowhead.com/spell=280001/bolster" xr:uid="{D8A0017F-2518-4794-BD49-E86D515916A6}"/>
+    <hyperlink ref="AZ10" r:id="rId218" display="https://www.wowhead.com/spell=29725/sudden-death" xr:uid="{6F99EEC5-7149-4A17-A657-BBC0EFCC7881}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId219"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId219"/>
+  <drawing r:id="rId220"/>
 </worksheet>
 </file>